--- a/student_updated.xlsx
+++ b/student_updated.xlsx
@@ -438,8 +438,8 @@
   </sheetPr>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>

--- a/student_updated.xlsx
+++ b/student_updated.xlsx
@@ -488,117 +488,117 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>20140001</v>
+        <v>20140004</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Olivia</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>42.4</v>
+        <v>84.39</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>20140002</v>
+        <v>20161010</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Daisy</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>55.52999999999999</v>
+        <v>82.22000000000001</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>20140003</v>
+        <v>20161011</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>37.25</v>
+        <v>80.61</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>20140004</v>
+        <v>20161051</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>Leah</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>84.39</v>
+        <v>80.03</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -608,297 +608,297 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>20140005</v>
+        <v>20161009</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>Nur</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>47.51</v>
+        <v>79.21000000000001</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>20150001</v>
+        <v>20161049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Isla</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>35.03</v>
+        <v>78.87</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>20150003</v>
+        <v>20161032</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Isabella</t>
+          <t>Ivy</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>61.02</v>
+        <v>77.34</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>20150005</v>
+        <v>20150027</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Ava</t>
+          <t>Emma+</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>56.65</v>
+        <v>76.58</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>20150007</v>
+        <v>20150013</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Sophie</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>54.36999999999999</v>
+        <v>76.17</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>20150009</v>
+        <v>20161044</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Chloe</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>66.47000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>20150011</v>
+        <v>20161005</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>50.36</v>
+        <v>72.91</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>20150013</v>
+        <v>20150019</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Evie</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>76.17</v>
+        <v>72.56</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>20150015</v>
+        <v>20161033</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Amie</t>
+          <t>Emilia</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>50.05</v>
+        <v>72.55000000000001</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>20150017</v>
+        <v>20161035</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Eliza</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>65.45999999999999</v>
+        <v>71.91000000000001</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -908,27 +908,27 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>20150019</v>
+        <v>20161029</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Evie</t>
+          <t>Imogen</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>72.56</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -938,927 +938,927 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>20150021</v>
+        <v>20161022</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Lola</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>59.27999999999999</v>
+        <v>69.53000000000002</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>20150023</v>
+        <v>20161019</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Matilda</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>53.18</v>
+        <v>68.86000000000001</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>20150025</v>
+        <v>20161013</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Florence</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>29.51</v>
+        <v>67.69000000000001</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>20150027</v>
+        <v>20150009</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Emma+</t>
+          <t>Chloe</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>76.58</v>
+        <v>66.47000000000001</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>20150029</v>
+        <v>20161037</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Mila</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>57.54999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>20161001</v>
+        <v>20150017</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Ruby</t>
+          <t>Mia</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>56.9</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>20161002</v>
+        <v>20161015</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Maryam</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>48.63999999999999</v>
+        <v>65.09</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>20161003</v>
+        <v>20161047</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Freya</t>
+          <t>Harriet</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>37.10999999999999</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20161004</v>
+        <v>20161026</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Molly</t>
+          <t>Millie</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>31.51</v>
+        <v>64.61</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>20161005</v>
+        <v>20161048</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Violet</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>72.91</v>
+        <v>61.76</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>20161006</v>
+        <v>20150003</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>42.38</v>
+        <v>61.02</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>20161007</v>
+        <v>20150021</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Abigail</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>36.77</v>
+        <v>59.27999999999999</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>20161008</v>
+        <v>20161039</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Phoebe</t>
+          <t>Willow</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>26.7</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>20161009</v>
+        <v>20161024</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Nur</t>
+          <t>Rosie</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>79.21000000000001</v>
+        <v>58.29</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>20161010</v>
+        <v>20150029</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Daisy</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>82.22000000000001</v>
+        <v>57.54999999999999</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>20161011</v>
+        <v>20161001</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>80.61</v>
+        <v>56.9</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>20161012</v>
+        <v>20150005</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Ava</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>30.67</v>
+        <v>56.65</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>20161013</v>
+        <v>20161036</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Florence</t>
+          <t>Layla</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>67.69000000000001</v>
+        <v>56.25</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>20161014</v>
+        <v>20140002</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Ellie</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>41.72</v>
+        <v>55.52999999999999</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>20161015</v>
+        <v>20150007</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Maryam</t>
+          <t>Sophie</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>65.09</v>
+        <v>54.36999999999999</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>20161016</v>
+        <v>20161020</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>49.15</v>
+        <v>53.86</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>20161017</v>
+        <v>20150023</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Sienna</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>46.62</v>
+        <v>53.18</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>20161018</v>
+        <v>20161030</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Elsie</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>22.2</v>
+        <v>52.13</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>20161019</v>
+        <v>20150011</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Matilda</t>
+          <t>Isabelle</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>68.86000000000001</v>
+        <v>50.36</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>20161020</v>
+        <v>20150015</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Amie</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>53.86</v>
+        <v>50.05</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>20161021</v>
+        <v>20161016</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>39.43</v>
+        <v>49.15</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>20161022</v>
+        <v>20161002</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Lola</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>69.53000000000002</v>
+        <v>48.63999999999999</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>20161023</v>
+        <v>20161031</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Bella</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>37.13</v>
+        <v>48.19</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>20161024</v>
+        <v>20140005</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>Rosie</t>
+          <t>Amelia</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>58.29</v>
+        <v>47.51</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>20161025</v>
+        <v>20161017</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Holly</t>
+          <t>Sienna</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>24.18</v>
+        <v>46.62</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>20161026</v>
+        <v>20161054</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>Millie</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>64.61</v>
+        <v>43.91</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
@@ -1868,78 +1868,78 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>20161027</v>
+        <v>20161053</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>Annabelle</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>16.89</v>
+        <v>43.51</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>20161028</v>
+        <v>20161038</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>33.5</v>
+        <v>42.83</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>20161029</v>
+        <v>20140001</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>Imogen</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>41</v>
@@ -1948,37 +1948,37 @@
         <v>1</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>69.90000000000001</v>
+        <v>42.4</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>20161030</v>
+        <v>20161006</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>52.13</v>
+        <v>42.38</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
@@ -1988,27 +1988,27 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>20161031</v>
+        <v>20161014</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Ellie</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>48.19</v>
+        <v>41.72</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
@@ -2018,87 +2018,87 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>20161032</v>
+        <v>20161046</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Ivy</t>
+          <t>Amber</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>77.34</v>
+        <v>41.19</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>20161033</v>
+        <v>20161040</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Emilia</t>
+          <t>Amelie</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>72.55000000000001</v>
+        <v>40.99</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>20161034</v>
+        <v>20161021</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>31.57</v>
+        <v>39.43</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
@@ -2108,207 +2108,207 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>20161035</v>
+        <v>20161042</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Eliza</t>
+          <t>Summer</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>71.91000000000001</v>
+        <v>37.74</v>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>20161036</v>
+        <v>20161043</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Layla</t>
+          <t>Zara</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>56.25</v>
+        <v>37.44</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>20161037</v>
+        <v>20140003</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Mila</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>65.65000000000001</v>
+        <v>37.25</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>20161038</v>
+        <v>20161023</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Bella</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>42.83</v>
+        <v>37.13</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>20161039</v>
+        <v>20161003</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Freya</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>58.59999999999999</v>
+        <v>37.10999999999999</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>20161040</v>
+        <v>20161007</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Amelie</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>40.99</v>
+        <v>36.77</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>20161041</v>
+        <v>20161052</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Maisie</t>
+          <t>Aria</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>22.58</v>
+        <v>36.05</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
@@ -2318,27 +2318,27 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>20161042</v>
+        <v>20150001</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Summer</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>37.74</v>
+        <v>35.03</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -2348,27 +2348,27 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>20161043</v>
+        <v>20161028</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Zara</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>37.44</v>
+        <v>33.5</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
@@ -2378,57 +2378,57 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>20161044</v>
+        <v>20161034</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>74.36</v>
+        <v>31.57</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>20161045</v>
+        <v>20161004</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>25.16</v>
+        <v>31.51</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
@@ -2438,121 +2438,121 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>20161046</v>
+        <v>20161012</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>41.19</v>
+        <v>30.67</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>20161047</v>
+        <v>20150025</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Harriet</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>65.01000000000001</v>
+        <v>29.51</v>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>20161048</v>
+        <v>20161008</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Violet</t>
+          <t>Phoebe</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>61.76</v>
+        <v>26.7</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>20161049</v>
+        <v>20161045</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>78.87</v>
+        <v>25.16</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2588,57 +2588,57 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>20161051</v>
+        <v>20161025</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Leah</t>
+          <t>Holly</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>80.03</v>
+        <v>24.18</v>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>20161052</v>
+        <v>20161041</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>Aria</t>
+          <t>Maisie</t>
         </is>
       </c>
       <c r="C73" s="0" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>36.05</v>
+        <v>22.58</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -2648,61 +2648,61 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>20161053</v>
+        <v>20161018</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Elsie</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>43.51</v>
+        <v>22.2</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>20161054</v>
+        <v>20161027</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Annabelle</t>
         </is>
       </c>
       <c r="C75" s="0" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>43.91</v>
+        <v>16.89</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>F</t>
         </is>
       </c>
     </row>

--- a/student_updated.xlsx
+++ b/student_updated.xlsx
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>82.22000000000001</v>
+        <v>83.21000000000001</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>80.61</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>80.03</v>
+        <v>81.02</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>79.21000000000001</v>
+        <v>80.19999999999999</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>78.87</v>
+        <v>79.86</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>77.34</v>
+        <v>78.33</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>76.58</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>76.17</v>
+        <v>77.16</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>74.36</v>
+        <v>75.35000000000001</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>72.91</v>
+        <v>73.89999999999999</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>72.56</v>
+        <v>73.55</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>72.55000000000001</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>71.91000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>69.90000000000001</v>
+        <v>70.89000000000001</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>69.53000000000002</v>
+        <v>70.52000000000001</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>68.86000000000001</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>67.69000000000001</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>66.47000000000001</v>
+        <v>67.46000000000001</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>65.65000000000001</v>
+        <v>66.64000000000001</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>65.45999999999999</v>
+        <v>66.45</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>65.09</v>
+        <v>66.08000000000001</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>65.01000000000001</v>
+        <v>65.99999999999999</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>64.61</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>61.76</v>
+        <v>62.74999999999999</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>61.02</v>
+        <v>62.01000000000001</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>59.27999999999999</v>
+        <v>60.27</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>58.59999999999999</v>
+        <v>59.58999999999999</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>58.29</v>
+        <v>59.28</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>57.54999999999999</v>
+        <v>58.53999999999999</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>56.9</v>
+        <v>57.89</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>56.65</v>
+        <v>57.64</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>56.25</v>
+        <v>57.24</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>55.52999999999999</v>
+        <v>56.52</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>54.36999999999999</v>
+        <v>55.36</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>53.86</v>
+        <v>54.85</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>53.18</v>
+        <v>54.17000000000001</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>52.13</v>
+        <v>53.12</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>50.36</v>
+        <v>51.34999999999999</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>50.05</v>
+        <v>51.04</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>49.15</v>
+        <v>50.13999999999999</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>48.63999999999999</v>
+        <v>49.63</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>48.19</v>
+        <v>49.17999999999999</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>47.51</v>
+        <v>48.5</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>46.62</v>
+        <v>47.61</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>43.91</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>43.51</v>
+        <v>44.50000000000001</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
@@ -1918,11 +1918,11 @@
         <v>1</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>42.83</v>
+        <v>43.82</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>42.4</v>
+        <v>43.39</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>42.38</v>
+        <v>43.37</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>41.72</v>
+        <v>42.71</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
@@ -2038,11 +2038,11 @@
         <v>1</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>41.19</v>
+        <v>42.17999999999999</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2068,11 +2068,11 @@
         <v>1</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>40.99</v>
+        <v>41.98</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2098,11 +2098,11 @@
         <v>1</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>39.43</v>
+        <v>40.42</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>37.74</v>
+        <v>38.73</v>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>37.44</v>
+        <v>38.43</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>37.25</v>
+        <v>38.24</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>37.13</v>
+        <v>38.12</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>37.10999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>36.77</v>
+        <v>37.76</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>36.05</v>
+        <v>37.03999999999999</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>35.03</v>
+        <v>36.02</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>33.5</v>
+        <v>34.48999999999999</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>31.57</v>
+        <v>32.56</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>31.51</v>
+        <v>32.5</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>30.67</v>
+        <v>31.66</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>29.51</v>
+        <v>30.5</v>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>26.7</v>
+        <v>27.69</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>25.16</v>
+        <v>26.15</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>24.82</v>
+        <v>25.81</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>24.18</v>
+        <v>25.17</v>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>22.58</v>
+        <v>23.57</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>22.2</v>
+        <v>23.19</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>16.89</v>
+        <v>17.88</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
